--- a/project1/dust_test_data.xlsx
+++ b/project1/dust_test_data.xlsx
@@ -1,3 +1,179 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="36" windowWidth="22056" windowHeight="9696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <sz val="6"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
@@ -282,4 +458,1025 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:E100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col width="2.88671875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="5.77734375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="44.5546875" customWidth="1" style="3" min="3" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>項番</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>前提</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>手順</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・前提１Ａ
+</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.手順１Ａ
+2.手順２Ａ
+3.手順３Ａ
+</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・結果１Ａ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・前提１Ａ
+</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.手順１Ａ
+2.手順２Ａ
+3.手順３Ｂ
+</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・結果１Ａ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・前提１Ａ
+・前提２Ａ
+</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.手順１Ａ
+2.手順２Ｂ
+3.手順３Ａ
+</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・結果１Ａ
+・結果２Ａ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・前提１Ａ
+・前提２Ａ
+</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.手順１Ａ
+2.手順２Ｂ
+3.手順３Ｂ
+</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・結果１Ａ
+・結果２Ｂ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・前提１Ｂ
+・前提２Ａ
+</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.手順１Ａ
+2.手順２Ｂ
+3.手順３Ｂ
+</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">・結果１Ａ
+・結果２Ｂ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="1">
+        <f>ROW()-2</f>
+        <v/>
+      </c>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>